--- a/advancedpython.xlsx
+++ b/advancedpython.xlsx
@@ -481,8 +481,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>9904391.0</v>
+      <c r="A3" s="2">
+        <v>9.9004391E7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>

--- a/advancedpython.xlsx
+++ b/advancedpython.xlsx
@@ -3,8 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="games" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="tvseries" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="movies" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="books" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="football" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="387">
   <si>
     <t>psno</t>
   </si>
@@ -26,6 +29,57 @@
     <t>game3</t>
   </si>
   <si>
+    <t>game4</t>
+  </si>
+  <si>
+    <t>game5</t>
+  </si>
+  <si>
+    <t>game6</t>
+  </si>
+  <si>
+    <t>game7</t>
+  </si>
+  <si>
+    <t>game8</t>
+  </si>
+  <si>
+    <t>game9</t>
+  </si>
+  <si>
+    <t>game10</t>
+  </si>
+  <si>
+    <t>game11</t>
+  </si>
+  <si>
+    <t>game12</t>
+  </si>
+  <si>
+    <t>game13</t>
+  </si>
+  <si>
+    <t>game14</t>
+  </si>
+  <si>
+    <t>game15</t>
+  </si>
+  <si>
+    <t>game16</t>
+  </si>
+  <si>
+    <t>game17</t>
+  </si>
+  <si>
+    <t>game18</t>
+  </si>
+  <si>
+    <t>game19</t>
+  </si>
+  <si>
+    <t>game20</t>
+  </si>
+  <si>
     <t>last of us1</t>
   </si>
   <si>
@@ -35,6 +89,21 @@
     <t>halo5</t>
   </si>
   <si>
+    <t>last of us2</t>
+  </si>
+  <si>
+    <t>uncharted1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last of us 3 </t>
+  </si>
+  <si>
+    <t>days gone 2</t>
+  </si>
+  <si>
+    <t>halo4</t>
+  </si>
+  <si>
     <t>god of war</t>
   </si>
   <si>
@@ -44,6 +113,21 @@
     <t>forza horizon 5</t>
   </si>
   <si>
+    <t>god of war2</t>
+  </si>
+  <si>
+    <t>uncharted2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">god of war 3 </t>
+  </si>
+  <si>
+    <t>gears of war 6</t>
+  </si>
+  <si>
+    <t>forza horizon 4</t>
+  </si>
+  <si>
     <t>resident evil</t>
   </si>
   <si>
@@ -53,6 +137,18 @@
     <t>ac valhalla</t>
   </si>
   <si>
+    <t xml:space="preserve">resident evil 4 </t>
+  </si>
+  <si>
+    <t>ac origins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident evil5 </t>
+  </si>
+  <si>
+    <t>cyberpunk 2077</t>
+  </si>
+  <si>
     <t>fifa 21</t>
   </si>
   <si>
@@ -62,7 +158,619 @@
     <t>fortnite</t>
   </si>
   <si>
-    <t>book</t>
+    <t xml:space="preserve">gta </t>
+  </si>
+  <si>
+    <t>fortnite 2021</t>
+  </si>
+  <si>
+    <t>fifa 15</t>
+  </si>
+  <si>
+    <t>horizon forbidden east</t>
+  </si>
+  <si>
+    <t>tvseries1</t>
+  </si>
+  <si>
+    <t>tvseries2</t>
+  </si>
+  <si>
+    <t>tvseries3</t>
+  </si>
+  <si>
+    <t>tvseries4</t>
+  </si>
+  <si>
+    <t>tvseries5</t>
+  </si>
+  <si>
+    <t>tvseries6</t>
+  </si>
+  <si>
+    <t>tvseries7</t>
+  </si>
+  <si>
+    <t>tvseries8</t>
+  </si>
+  <si>
+    <t>tvseries9</t>
+  </si>
+  <si>
+    <t>tvseries10</t>
+  </si>
+  <si>
+    <t>tvseries11</t>
+  </si>
+  <si>
+    <t>tvseries12</t>
+  </si>
+  <si>
+    <t>tvseries13</t>
+  </si>
+  <si>
+    <t>tvseries14</t>
+  </si>
+  <si>
+    <t>tvseries15</t>
+  </si>
+  <si>
+    <t>tvseries16</t>
+  </si>
+  <si>
+    <t>tvseries17</t>
+  </si>
+  <si>
+    <t>tvseries18</t>
+  </si>
+  <si>
+    <t>tvseries19</t>
+  </si>
+  <si>
+    <t>tvseries20</t>
+  </si>
+  <si>
+    <t>mirzapur</t>
+  </si>
+  <si>
+    <t>blacklist</t>
+  </si>
+  <si>
+    <t>the family man</t>
+  </si>
+  <si>
+    <t>game of thrones</t>
+  </si>
+  <si>
+    <t>supergirl</t>
+  </si>
+  <si>
+    <t>legacies</t>
+  </si>
+  <si>
+    <t>the witcher</t>
+  </si>
+  <si>
+    <t>one100</t>
+  </si>
+  <si>
+    <t>money heist</t>
+  </si>
+  <si>
+    <t>writer's legacy</t>
+  </si>
+  <si>
+    <t>young sheldon</t>
+  </si>
+  <si>
+    <t>lucifier</t>
+  </si>
+  <si>
+    <t>shadow and bone</t>
+  </si>
+  <si>
+    <t>wandavision</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>ragnarok</t>
+  </si>
+  <si>
+    <t>anupama</t>
+  </si>
+  <si>
+    <t>big bang theory</t>
+  </si>
+  <si>
+    <t>riverdale</t>
+  </si>
+  <si>
+    <t>mindhunter</t>
+  </si>
+  <si>
+    <t>peaky blinders</t>
+  </si>
+  <si>
+    <t>mare easttown</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>brooklyine nine nine</t>
+  </si>
+  <si>
+    <t>sacred games</t>
+  </si>
+  <si>
+    <t>euphoria</t>
+  </si>
+  <si>
+    <t>alice in borderland</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>special ops</t>
+  </si>
+  <si>
+    <t>prison break</t>
+  </si>
+  <si>
+    <t>mordern family</t>
+  </si>
+  <si>
+    <t>movie1</t>
+  </si>
+  <si>
+    <t>movie2</t>
+  </si>
+  <si>
+    <t>movie3</t>
+  </si>
+  <si>
+    <t>movie4</t>
+  </si>
+  <si>
+    <t>movie5</t>
+  </si>
+  <si>
+    <t>movie6</t>
+  </si>
+  <si>
+    <t>movie7</t>
+  </si>
+  <si>
+    <t>movie8</t>
+  </si>
+  <si>
+    <t>movie9</t>
+  </si>
+  <si>
+    <t>movie10</t>
+  </si>
+  <si>
+    <t>movie11</t>
+  </si>
+  <si>
+    <t>movie12</t>
+  </si>
+  <si>
+    <t>movie13</t>
+  </si>
+  <si>
+    <t>movie14</t>
+  </si>
+  <si>
+    <t>movie15</t>
+  </si>
+  <si>
+    <t>movie16</t>
+  </si>
+  <si>
+    <t>movie17</t>
+  </si>
+  <si>
+    <t>movie18</t>
+  </si>
+  <si>
+    <t>movie19</t>
+  </si>
+  <si>
+    <t>movie20</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>The Lives of Others</t>
+  </si>
+  <si>
+    <t>Cinema Paradiso</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode VI - Return of the Jedi</t>
+  </si>
+  <si>
+    <t>The Battle of Algiers</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>The Hustler</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Unforgiven</t>
+  </si>
+  <si>
+    <t>The Godfather: Part II</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>The Great Dictator</t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
+    <t>The Shining</t>
+  </si>
+  <si>
+    <t>Once Upon a Time in America</t>
+  </si>
+  <si>
+    <t>La Haine</t>
+  </si>
+  <si>
+    <t>The Apartment</t>
+  </si>
+  <si>
+    <t>The Graduate</t>
+  </si>
+  <si>
+    <t>Ran</t>
+  </si>
+  <si>
+    <t>3 Idiots</t>
+  </si>
+  <si>
+    <t>The Dark Knight</t>
+  </si>
+  <si>
+    <t>Oldeuboi</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Bicycle Thieves</t>
+  </si>
+  <si>
+    <t>Paths of Glory</t>
+  </si>
+  <si>
+    <t>Amélie</t>
+  </si>
+  <si>
+    <t>A Fistful of Dollars</t>
+  </si>
+  <si>
+    <t>Inglourious Basterds</t>
+  </si>
+  <si>
+    <t>The Big Sleep</t>
+  </si>
+  <si>
+    <t>The Gold Rush</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Schindler's List</t>
+  </si>
+  <si>
+    <t>Das Boot</t>
+  </si>
+  <si>
+    <t>Singin' in the Rain</t>
+  </si>
+  <si>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t>Witness for the Prosecution</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
+    <t>All About Eve</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Ikiru</t>
+  </si>
+  <si>
+    <t>Raging Bull</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode V - The Empire Strikes Back</t>
+  </si>
+  <si>
+    <t>Monty Python and the Holy Grail</t>
+  </si>
+  <si>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t>Reservoir Dogs</t>
+  </si>
+  <si>
+    <t>Notorious</t>
+  </si>
+  <si>
+    <t>The Treasure of the Sierra Madre</t>
+  </si>
+  <si>
+    <t>Elite Squad: The Enemy Within</t>
+  </si>
+  <si>
+    <t>The Seventh Seal</t>
+  </si>
+  <si>
+    <t>Downfall</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Two Towers</t>
+  </si>
+  <si>
+    <t>Snatch.</t>
+  </si>
+  <si>
+    <t>WALL·E</t>
+  </si>
+  <si>
+    <t>Braveheart</t>
+  </si>
+  <si>
+    <t>Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Jodaeiye Nader az Simin</t>
+  </si>
+  <si>
+    <t>Gangs of Wasseypur</t>
+  </si>
+  <si>
+    <t>Blade Runner</t>
+  </si>
+  <si>
+    <t>Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t>2001: A Space Odyssey</t>
+  </si>
+  <si>
+    <t>American Beauty</t>
+  </si>
+  <si>
+    <t>Toy Story 3</t>
+  </si>
+  <si>
+    <t>Prisoners</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Last Crusade</t>
+  </si>
+  <si>
+    <t>Lagaan: Once Upon a Time in India</t>
+  </si>
+  <si>
+    <t>The Secret in Their Eyes</t>
+  </si>
+  <si>
+    <t>Jagten</t>
+  </si>
+  <si>
+    <t>The Kid</t>
+  </si>
+  <si>
+    <t>Grave of the Fireflies</t>
+  </si>
+  <si>
+    <t>A Clockwork Orange</t>
+  </si>
+  <si>
+    <t>The Help</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Paris, Texas</t>
+  </si>
+  <si>
+    <t>Wild Strawberries</t>
+  </si>
+  <si>
+    <t>Chinatown</t>
+  </si>
+  <si>
+    <t>Before Sunset</t>
+  </si>
+  <si>
+    <t>Aliens</t>
+  </si>
+  <si>
+    <t>Double Indemnity</t>
+  </si>
+  <si>
+    <t>Who's Afraid of Virginia Woolf?</t>
+  </si>
+  <si>
+    <t>Yojimbo</t>
+  </si>
+  <si>
+    <t>Akira</t>
+  </si>
+  <si>
+    <t>The General</t>
+  </si>
+  <si>
+    <t>The Great Escape</t>
+  </si>
+  <si>
+    <t>Anatomy of a Murder</t>
+  </si>
+  <si>
+    <t>Citizen Kane</t>
+  </si>
+  <si>
+    <t>Taxi Driver</t>
+  </si>
+  <si>
+    <t>Roman Holiday</t>
+  </si>
+  <si>
+    <t>The Third Man</t>
+  </si>
+  <si>
+    <t>Lock, Stock and Two Smoking Barrels</t>
+  </si>
+  <si>
+    <t>Die Hard</t>
+  </si>
+  <si>
+    <t>North by Northwest</t>
+  </si>
+  <si>
+    <t>Requiem for a Dream</t>
+  </si>
+  <si>
+    <t>Spring, Summer, Fall, Winter... and Spring</t>
+  </si>
+  <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
+    <t>The Elephant Man</t>
+  </si>
+  <si>
+    <t>Good Will Hunting</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>The Night of the Hunter</t>
+  </si>
+  <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Lawrence of Arabia</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast</t>
+  </si>
+  <si>
+    <t>Some Like It Hot</t>
+  </si>
+  <si>
+    <t>The Wolf of Wall Street</t>
+  </si>
+  <si>
+    <t>On the Waterfront</t>
+  </si>
+  <si>
+    <t>L.A. Confidential</t>
+  </si>
+  <si>
+    <t>Eternal Sunshine of the Spotless Mind</t>
+  </si>
+  <si>
+    <t>La Strada</t>
+  </si>
+  <si>
+    <t>Yip Man</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t>Pan's Labyrinth</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Rashômon</t>
+  </si>
+  <si>
+    <t>Full Metal Jacket</t>
+  </si>
+  <si>
+    <t>Papillon</t>
+  </si>
+  <si>
+    <t>The King's Speech</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Mr. Smith Goes to Washington</t>
+  </si>
+  <si>
+    <t>For a Few Dollars More</t>
+  </si>
+  <si>
+    <t>The Sting</t>
+  </si>
+  <si>
+    <t>X-Men: Days of Future Past</t>
+  </si>
+  <si>
+    <t>High Noon</t>
+  </si>
+  <si>
+    <t>Gran Torino</t>
+  </si>
+  <si>
+    <t>The Bridge on the River Kwai</t>
+  </si>
+  <si>
+    <t>book1</t>
   </si>
   <si>
     <t>book2</t>
@@ -71,47 +779,410 @@
     <t>book3</t>
   </si>
   <si>
-    <t>alice in wonder</t>
-  </si>
-  <si>
-    <t>love and longing</t>
-  </si>
-  <si>
-    <t>haruki murakami</t>
+    <t>book4</t>
+  </si>
+  <si>
+    <t>book5</t>
+  </si>
+  <si>
+    <t>book6</t>
+  </si>
+  <si>
+    <t>book7</t>
+  </si>
+  <si>
+    <t>book8</t>
+  </si>
+  <si>
+    <t>book9</t>
+  </si>
+  <si>
+    <t>book10</t>
+  </si>
+  <si>
+    <t>book11</t>
+  </si>
+  <si>
+    <t>book12</t>
+  </si>
+  <si>
+    <t>book13</t>
+  </si>
+  <si>
+    <t>book14</t>
+  </si>
+  <si>
+    <t>book15</t>
+  </si>
+  <si>
+    <t>book16</t>
+  </si>
+  <si>
+    <t>book17</t>
+  </si>
+  <si>
+    <t>book18</t>
+  </si>
+  <si>
+    <t>book19</t>
+  </si>
+  <si>
+    <t>book20</t>
+  </si>
+  <si>
+    <t>1984 george orwell</t>
+  </si>
+  <si>
+    <t>beloved</t>
+  </si>
+  <si>
+    <t>brave new world</t>
+  </si>
+  <si>
+    <t>fahrenheit 451</t>
+  </si>
+  <si>
+    <t>alchemist</t>
+  </si>
+  <si>
+    <t>to kill a mockingbird</t>
+  </si>
+  <si>
+    <t>the kite runner</t>
+  </si>
+  <si>
+    <t>the handmaid tail</t>
+  </si>
+  <si>
+    <t>midnight children</t>
+  </si>
+  <si>
+    <t>catch 22</t>
   </si>
   <si>
     <t>pride and prejudice</t>
   </si>
   <si>
+    <t>all the light we cannot see</t>
+  </si>
+  <si>
+    <t>catcher in rye</t>
+  </si>
+  <si>
+    <t>dune</t>
+  </si>
+  <si>
+    <t>one hundred years of solitude</t>
+  </si>
+  <si>
+    <t>the god of small things</t>
+  </si>
+  <si>
+    <t>animal farm</t>
+  </si>
+  <si>
+    <t>the time machines</t>
+  </si>
+  <si>
+    <t>where the crawdads sing</t>
+  </si>
+  <si>
+    <t>slaughter house five</t>
+  </si>
+  <si>
     <t>jane eyre</t>
   </si>
   <si>
-    <t>alchemist</t>
-  </si>
-  <si>
-    <t>midnight children</t>
-  </si>
-  <si>
-    <t>catcher in rye</t>
-  </si>
-  <si>
-    <t>animal farm</t>
-  </si>
-  <si>
-    <t>great gatsby</t>
-  </si>
-  <si>
-    <t>god of small things</t>
-  </si>
-  <si>
-    <t>the four winds</t>
+    <t>station eleven</t>
+  </si>
+  <si>
+    <t>four winds</t>
+  </si>
+  <si>
+    <t>lord of the rings</t>
+  </si>
+  <si>
+    <t>war and piece</t>
+  </si>
+  <si>
+    <t>the road</t>
+  </si>
+  <si>
+    <t>circe</t>
+  </si>
+  <si>
+    <t>things fall apart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dune </t>
+  </si>
+  <si>
+    <t>frankestein</t>
+  </si>
+  <si>
+    <t>the book thief</t>
+  </si>
+  <si>
+    <t>football_club1</t>
+  </si>
+  <si>
+    <t>football_club2</t>
+  </si>
+  <si>
+    <t>football_club3</t>
+  </si>
+  <si>
+    <t>football_club4</t>
+  </si>
+  <si>
+    <t>football_club5</t>
+  </si>
+  <si>
+    <t>football_club6</t>
+  </si>
+  <si>
+    <t>football_club7</t>
+  </si>
+  <si>
+    <t>football_club8</t>
+  </si>
+  <si>
+    <t>football_club9</t>
+  </si>
+  <si>
+    <t>football_club10</t>
+  </si>
+  <si>
+    <t>football_club11</t>
+  </si>
+  <si>
+    <t>football_club12</t>
+  </si>
+  <si>
+    <t>football_club13</t>
+  </si>
+  <si>
+    <t>football_club14</t>
+  </si>
+  <si>
+    <t>football_club15</t>
+  </si>
+  <si>
+    <t>football_club16</t>
+  </si>
+  <si>
+    <t>football_club17</t>
+  </si>
+  <si>
+    <t>football_club18</t>
+  </si>
+  <si>
+    <t>football_club19</t>
+  </si>
+  <si>
+    <t>football_club20</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Preston North End</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>MK Dons</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Oldham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,13 +1193,28 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF24292E"/>
+      <name val="SFMono-Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -146,6 +1232,27 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,6 +1267,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -380,19 +1499,121 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>9.900439E7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +1621,64 @@
         <v>9.9004391E7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +1686,64 @@
         <v>9.9004392E7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +1751,844 @@
         <v>9.9004393E7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>9.9004394E7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>9.9004395E7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>9.9004396E7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>9.9004397E7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9.9004398E7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.9004399E7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>9.90044E7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>9.9004401E7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>9.9004402E7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>9.9004403E7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>9.9004404E7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>9.9004405E7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -457,13 +2611,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -471,55 +2676,4626 @@
         <v>9.900439E7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>9.9004391E7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>9.9004392E7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>9.9004393E7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>9.9004394E7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>9.9004395E7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>9.9004396E7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>9.9004397E7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.9004398E7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.9004399E7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>9.90044E7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>9.9004401E7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>9.9004402E7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>9.9004403E7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>9.9004404E7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>9.9004405E7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>9.900439E7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>9.9004391E7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>9.9004392E7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>9.9004393E7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>9.9004394E7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>9.9004395E7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>9.9004396E7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>9.9004397E7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.9004398E7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.9004399E7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>9.90044E7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>9.9004401E7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>9.9004402E7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>9.9004403E7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>9.9004404E7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>9.9004405E7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="K31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="K32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="K33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="K34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="K35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="K36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="K37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="K38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="K39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="K40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="K41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="K42" s="8"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="K43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46">
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56">
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62">
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64">
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66">
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68">
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70">
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72">
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74">
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76">
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78">
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80">
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82">
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84">
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="K85" s="9"/>
+    </row>
+    <row r="86">
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="K87" s="9"/>
+    </row>
+    <row r="88">
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89">
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90">
+      <c r="K90" s="8"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>9.900439E7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>9.9004391E7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>9.9004392E7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>9.9004393E7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>9.9004394E7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>9.9004395E7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>9.9004396E7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>9.9004397E7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.9004398E7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.9004399E7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>9.90044E7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>9.9004401E7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>9.9004402E7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>9.9004403E7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>9.9004404E7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>9.9004405E7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>9.900439E7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>9.9004391E7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>9.9004392E7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
+      <c r="B4" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>9.9004393E7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>9.9004394E7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>9.9004395E7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>9.9004396E7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>9.9004397E7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.9004398E7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="T10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.9004399E7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>9.90044E7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>9.9004401E7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>9.9004402E7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>9.9004403E7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>9.9004404E7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>9.9004405E7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
